--- a/data/trans_orig/P32E$amigos_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32E$amigos_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>10246</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3039</v>
+        <v>3242</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19303</v>
+        <v>19056</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3467151952592487</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1028397006324197</v>
+        <v>0.1097090530667689</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.653191716249357</v>
+        <v>0.6448170474152121</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -762,19 +762,19 @@
         <v>5947</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1725</v>
+        <v>1385</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12177</v>
+        <v>11793</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3310935135970048</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09602781512312593</v>
+        <v>0.07709811720239394</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6779772554208304</v>
+        <v>0.6565863420101894</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -783,19 +783,19 @@
         <v>16193</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7570</v>
+        <v>7454</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27439</v>
+        <v>28190</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3408098220077547</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1593312323861552</v>
+        <v>0.1568787248698219</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5775110359365679</v>
+        <v>0.5933062566590378</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>22961</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14318</v>
+        <v>14237</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27691</v>
+        <v>27692</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.776981073684171</v>
+        <v>0.7769810736841709</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4845047222697929</v>
+        <v>0.48176446741975</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9370353219116118</v>
+        <v>0.9370547615110151</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -833,19 +833,19 @@
         <v>13567</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7838</v>
+        <v>6878</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17016</v>
+        <v>17020</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7553670171674163</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4363806257023357</v>
+        <v>0.3829521106093903</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9474089623350881</v>
+        <v>0.947596339064526</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -854,19 +854,19 @@
         <v>36528</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>26164</v>
+        <v>27772</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>43186</v>
+        <v>43302</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7688104378992404</v>
+        <v>0.7688104378992405</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5506608678738205</v>
+        <v>0.5845041452534386</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9089275619369995</v>
+        <v>0.9113801624622713</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>11867</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5066</v>
+        <v>5479</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20665</v>
+        <v>20004</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4015473182506018</v>
+        <v>0.4015473182506019</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1714327773348602</v>
+        <v>0.1853859302571822</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6992641172765571</v>
+        <v>0.6769197979081346</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -904,19 +904,19 @@
         <v>6141</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12560</v>
+        <v>11900</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3419199960326991</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1006154421106502</v>
+        <v>0.1008632934521172</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6992923709446482</v>
+        <v>0.6625275428744009</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -925,19 +925,19 @@
         <v>18008</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10075</v>
+        <v>9432</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>28539</v>
+        <v>27344</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3790067492326797</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2120429384135224</v>
+        <v>0.1985062590934842</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6006565190308919</v>
+        <v>0.5755008358293252</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>13050</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5050</v>
+        <v>5376</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20077</v>
+        <v>20697</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4415791420931273</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1708996891345704</v>
+        <v>0.1819111438883715</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.67939070352824</v>
+        <v>0.7003706188929026</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -975,19 +975,19 @@
         <v>4028</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>971</v>
+        <v>859</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9632</v>
+        <v>9936</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.224247470309773</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05407198473640228</v>
+        <v>0.04783266898053342</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5362494509983954</v>
+        <v>0.5532125211905898</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -996,19 +996,19 @@
         <v>17077</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8516</v>
+        <v>9230</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26873</v>
+        <v>27275</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3594225171534572</v>
+        <v>0.3594225171534571</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1792381269933262</v>
+        <v>0.1942660917247011</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5655831193725864</v>
+        <v>0.5740538331887454</v>
       </c>
     </row>
     <row r="8">
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8285</v>
+        <v>7989</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1475864048270043</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4612998961136124</v>
+        <v>0.4447750074705312</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9896</v>
+        <v>9417</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05579122825527907</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2082823011975606</v>
+        <v>0.1981975382197586</v>
       </c>
     </row>
     <row r="9">
@@ -1092,19 +1092,19 @@
         <v>11201</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4885</v>
+        <v>4843</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18950</v>
+        <v>18412</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4011079168277044</v>
+        <v>0.4011079168277045</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1749417282638339</v>
+        <v>0.1734278315178047</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6786165119177578</v>
+        <v>0.6593638707537901</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1113,19 +1113,19 @@
         <v>5436</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1394</v>
+        <v>1476</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10320</v>
+        <v>10304</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3403723497395461</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08728611323780291</v>
+        <v>0.09244142303662062</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.646126781389509</v>
+        <v>0.6451147674333769</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -1134,19 +1134,19 @@
         <v>16637</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8912</v>
+        <v>9289</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24833</v>
+        <v>24672</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3790085949678459</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2030339360097974</v>
+        <v>0.2116121721041467</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5657159307514722</v>
+        <v>0.5620537275464356</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>20811</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13521</v>
+        <v>13256</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26041</v>
+        <v>25272</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7452603401045221</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4842111186789582</v>
+        <v>0.4747258789719683</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.932556006160098</v>
+        <v>0.9050123782621989</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1184,7 +1184,7 @@
         <v>15055</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11117</v>
+        <v>11128</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>15972</v>
@@ -1193,7 +1193,7 @@
         <v>0.9426046445797399</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6960221842706464</v>
+        <v>0.6967210515420271</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1205,19 +1205,19 @@
         <v>35866</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28420</v>
+        <v>28158</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40908</v>
+        <v>40728</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8170662935333831</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6474394038499462</v>
+        <v>0.6414718831295444</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9319278291910726</v>
+        <v>0.9278211149893273</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>3592</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>922</v>
+        <v>1006</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9094</v>
+        <v>9036</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1286374484325835</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03302646818534425</v>
+        <v>0.03601900842505125</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3256735149601517</v>
+        <v>0.3236086324282182</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6630</v>
+        <v>6562</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08469785365606713</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4151102584284612</v>
+        <v>0.4108559768158638</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -1276,19 +1276,19 @@
         <v>4945</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1329</v>
+        <v>1333</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11824</v>
+        <v>11815</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1126495307442787</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03027628195102786</v>
+        <v>0.03035640222017684</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2693714027184847</v>
+        <v>0.2691577600158732</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>7781</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2488</v>
+        <v>2997</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15264</v>
+        <v>15634</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2786592697911263</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08910393428555166</v>
+        <v>0.1073144549660985</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5466405603597534</v>
+        <v>0.559866479025337</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1326,19 +1326,19 @@
         <v>4193</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>913</v>
+        <v>947</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9599</v>
+        <v>9309</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2625462855337125</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05717044133102858</v>
+        <v>0.05926094744289521</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6009726070424252</v>
+        <v>0.5828357655301921</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -1347,19 +1347,19 @@
         <v>11975</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5726</v>
+        <v>5694</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>20260</v>
+        <v>20992</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2727963785348291</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1304403900981448</v>
+        <v>0.1297052279641638</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4615478576353307</v>
+        <v>0.4782225206848056</v>
       </c>
     </row>
     <row r="13">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7233</v>
+        <v>6742</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1510823020527444</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4528433538789065</v>
+        <v>0.4221072005778205</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8556</v>
+        <v>8331</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05497300149590494</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1949174234755721</v>
+        <v>0.1897949817677709</v>
       </c>
     </row>
     <row r="14">
@@ -1443,19 +1443,19 @@
         <v>5601</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2090</v>
+        <v>2151</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11186</v>
+        <v>10637</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1886853294077434</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07040447267142751</v>
+        <v>0.07247695901202313</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3768223025813577</v>
+        <v>0.3583573118155697</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1477,19 +1477,19 @@
         <v>5601</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2184</v>
+        <v>2239</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11233</v>
+        <v>11063</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1544096049545915</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06020854889100006</v>
+        <v>0.06173537622037015</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3096645773271391</v>
+        <v>0.3049954461067763</v>
       </c>
     </row>
     <row r="15">
@@ -1506,19 +1506,19 @@
         <v>17382</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12052</v>
+        <v>12058</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>22809</v>
+        <v>22691</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.5855656011982159</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4060098801469305</v>
+        <v>0.4062221532136014</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7683825585033374</v>
+        <v>0.7644134006973027</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>6</v>
@@ -1527,7 +1527,7 @@
         <v>5047</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2475</v>
+        <v>2426</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>6589</v>
@@ -1536,7 +1536,7 @@
         <v>0.7659679658938473</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3755636659333759</v>
+        <v>0.3682069928959575</v>
       </c>
       <c r="P15" s="6" t="n">
         <v>1</v>
@@ -1548,19 +1548,19 @@
         <v>22430</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>15577</v>
+        <v>16105</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>27869</v>
+        <v>28005</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.618336679704496</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.429426915250471</v>
+        <v>0.4439902476000826</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7682862677093576</v>
+        <v>0.7720390042950633</v>
       </c>
     </row>
     <row r="16">
@@ -1577,19 +1577,19 @@
         <v>5760</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2285</v>
+        <v>2166</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11284</v>
+        <v>11450</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1940593087995217</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0769883578297943</v>
+        <v>0.07298424982370096</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3801249586524981</v>
+        <v>0.3857409661751294</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1611,19 +1611,19 @@
         <v>5761</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2277</v>
+        <v>2289</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11602</v>
+        <v>11466</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1588073715298902</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06278576512638863</v>
+        <v>0.06311575138094966</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3198322160203613</v>
+        <v>0.3161057634090614</v>
       </c>
     </row>
     <row r="17">
@@ -1640,19 +1640,19 @@
         <v>17475</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11814</v>
+        <v>11499</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22808</v>
+        <v>22666</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.588707187463667</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3979774305514539</v>
+        <v>0.3873972249705868</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7683763983935268</v>
+        <v>0.7635800255583139</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1661,19 +1661,19 @@
         <v>3838</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1414</v>
+        <v>1425</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5695</v>
+        <v>5701</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5824377857449631</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2146070575941635</v>
+        <v>0.216266243537797</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8642776730817205</v>
+        <v>0.8652951165039718</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -1682,19 +1682,19 @@
         <v>21313</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14619</v>
+        <v>15005</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26990</v>
+        <v>26800</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5875683162728282</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4030098568752074</v>
+        <v>0.4136563564165794</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7440504507916886</v>
+        <v>0.7388321753321492</v>
       </c>
     </row>
     <row r="18">
@@ -1762,19 +1762,19 @@
         <v>5117</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1992</v>
+        <v>1945</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10635</v>
+        <v>10781</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1679437613255138</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06537521590989183</v>
+        <v>0.06382132390613139</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3490543450148215</v>
+        <v>0.3538446062557621</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1783,19 +1783,19 @@
         <v>2063</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4752</v>
+        <v>5016</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1921784694346266</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05844878158485348</v>
+        <v>0.06046872536722337</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4425662310594109</v>
+        <v>0.4671907850483039</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -1804,19 +1804,19 @@
         <v>7180</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3156</v>
+        <v>3438</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12522</v>
+        <v>12411</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1742588255603762</v>
+        <v>0.1742588255603761</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07658542587598277</v>
+        <v>0.08342773488888044</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.303904449512952</v>
+        <v>0.3012112502069436</v>
       </c>
     </row>
     <row r="20">
@@ -1833,19 +1833,19 @@
         <v>20959</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15034</v>
+        <v>15560</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>25793</v>
+        <v>25609</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6879153413235997</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4934488741694114</v>
+        <v>0.5106873928488375</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8465691882840978</v>
+        <v>0.8405322237685917</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -1854,19 +1854,19 @@
         <v>7592</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4790</v>
+        <v>5062</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9594</v>
+        <v>9664</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7070489974683134</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4461189187324717</v>
+        <v>0.471492277288832</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8935520197514613</v>
+        <v>0.9001013630522611</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>31</v>
@@ -1875,19 +1875,19 @@
         <v>28551</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>22044</v>
+        <v>21733</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>33552</v>
+        <v>33289</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6929011768062315</v>
+        <v>0.6929011768062313</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5349825312028123</v>
+        <v>0.5274412043508774</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8142798320879402</v>
+        <v>0.807879552994722</v>
       </c>
     </row>
     <row r="21">
@@ -1904,19 +1904,19 @@
         <v>5289</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1968</v>
+        <v>1916</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10594</v>
+        <v>10551</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1735950744100164</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06458184769901583</v>
+        <v>0.0628726618267874</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3477212562433342</v>
+        <v>0.3463113316075868</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3073</v>
+        <v>2817</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06251504034666387</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2862525729186337</v>
+        <v>0.2623344320170479</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>6</v>
@@ -1946,19 +1946,19 @@
         <v>5960</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2186</v>
+        <v>2616</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>11141</v>
+        <v>11779</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1446499124892504</v>
+        <v>0.1446499124892503</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05305524650922112</v>
+        <v>0.06349867422072737</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2703712876274885</v>
+        <v>0.2858532569020774</v>
       </c>
     </row>
     <row r="22">
@@ -1975,19 +1975,19 @@
         <v>17333</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12079</v>
+        <v>11686</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22958</v>
+        <v>22566</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5688937264917205</v>
+        <v>0.5688937264917204</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3964530682765416</v>
+        <v>0.3835541714717153</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7535037460765428</v>
+        <v>0.7406451236574538</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -1996,19 +1996,19 @@
         <v>2582</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>695</v>
+        <v>715</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5359</v>
+        <v>5306</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2404743397156422</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0647202720735218</v>
+        <v>0.06656094980267506</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4991190931490376</v>
+        <v>0.4941828473732489</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -2017,19 +2017,19 @@
         <v>19915</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14275</v>
+        <v>13770</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25935</v>
+        <v>25783</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4833144195684745</v>
+        <v>0.4833144195684743</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3464383106874544</v>
+        <v>0.3341890842045789</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6294093227508605</v>
+        <v>0.6257223748344111</v>
       </c>
     </row>
     <row r="23">
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6978</v>
+        <v>6296</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06685283422187911</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2290234378894893</v>
+        <v>0.2066443061983668</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6036</v>
+        <v>6915</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.04943236682887498</v>
+        <v>0.04943236682887496</v>
       </c>
       <c r="V23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1464946221044198</v>
+        <v>0.1678194778684416</v>
       </c>
     </row>
     <row r="24">
@@ -2113,19 +2113,19 @@
         <v>2634</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>840</v>
+        <v>789</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6908</v>
+        <v>6440</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1133376885249108</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0361232732024778</v>
+        <v>0.03393276006793691</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2972305992573755</v>
+        <v>0.2771279588312179</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>3016</v>
+        <v>3141</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.1083042603251055</v>
+        <v>0.1083042603251054</v>
       </c>
       <c r="O24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4494266205039751</v>
+        <v>0.4680316120090813</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -2155,19 +2155,19 @@
         <v>3361</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>923</v>
+        <v>894</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7117</v>
+        <v>7684</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.112209828937612</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03083055108591566</v>
+        <v>0.02984738578831632</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.237615944744863</v>
+        <v>0.256552790635972</v>
       </c>
     </row>
     <row r="25">
@@ -2184,19 +2184,19 @@
         <v>14746</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10113</v>
+        <v>9676</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18798</v>
+        <v>18516</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.6345247952229595</v>
+        <v>0.6345247952229593</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4351682705191431</v>
+        <v>0.4163454013843781</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8088568577186142</v>
+        <v>0.796710267750328</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2205,19 +2205,19 @@
         <v>1818</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4080</v>
+        <v>4223</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2708438995122835</v>
+        <v>0.2708438995122834</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07920597382367854</v>
+        <v>0.07873363605113297</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6079963859743625</v>
+        <v>0.6292520972319325</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>21</v>
@@ -2226,19 +2226,19 @@
         <v>16564</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11600</v>
+        <v>11667</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21210</v>
+        <v>21553</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5530334202271695</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3873048005888884</v>
+        <v>0.3895308903480916</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7081536312521592</v>
+        <v>0.7196008291821748</v>
       </c>
     </row>
     <row r="26">
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3146</v>
+        <v>3193</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1045704465930301</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4688082518489015</v>
+        <v>0.4757638104919906</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3903</v>
+        <v>3463</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02343150156440755</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1303225886617542</v>
+        <v>0.1156140868358279</v>
       </c>
     </row>
     <row r="27">
@@ -2318,19 +2318,19 @@
         <v>16576</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>12249</v>
+        <v>11629</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>20023</v>
+        <v>20004</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7132355491989948</v>
+        <v>0.7132355491989947</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5270595002332368</v>
+        <v>0.5003950570221297</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8615602580857524</v>
+        <v>0.8607737664392865</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>7</v>
@@ -2339,19 +2339,19 @@
         <v>4192</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2106</v>
+        <v>2121</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>6012</v>
+        <v>6108</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.6245856538946865</v>
+        <v>0.6245856538946863</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3138400594121457</v>
+        <v>0.3160140815960537</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8958152492239455</v>
+        <v>0.9101552103551174</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>26</v>
@@ -2360,19 +2360,19 @@
         <v>20767</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>15501</v>
+        <v>16137</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>24501</v>
+        <v>24614</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.6933714267037399</v>
+        <v>0.6933714267037397</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5175474008264659</v>
+        <v>0.5387666159473478</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8180302878542146</v>
+        <v>0.8218217822842275</v>
       </c>
     </row>
     <row r="28">
@@ -2440,19 +2440,19 @@
         <v>3348</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>945</v>
+        <v>905</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6844</v>
+        <v>6649</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2313878476367979</v>
+        <v>0.2313878476367978</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0652889170076721</v>
+        <v>0.06252043904404118</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4729474115621833</v>
+        <v>0.4594420726837714</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2639</v>
+        <v>2454</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1580786348464248</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6859088518053892</v>
+        <v>0.6377789288218221</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -2482,19 +2482,19 @@
         <v>3957</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7797</v>
+        <v>7525</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2159907432782676</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07946356525427868</v>
+        <v>0.08110548592451974</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.425646219332292</v>
+        <v>0.4107758691586548</v>
       </c>
     </row>
     <row r="30">
@@ -2511,19 +2511,19 @@
         <v>6593</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3507</v>
+        <v>3598</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9907</v>
+        <v>9605</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.4556090294111749</v>
+        <v>0.4556090294111748</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2423330030888133</v>
+        <v>0.248650128963469</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6846337302934929</v>
+        <v>0.6637686490292827</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>6</v>
@@ -2532,7 +2532,7 @@
         <v>3235</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1540</v>
+        <v>1374</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>3848</v>
@@ -2541,7 +2541,7 @@
         <v>0.840777226013711</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4000908272414722</v>
+        <v>0.3569916315295432</v>
       </c>
       <c r="P30" s="6" t="n">
         <v>1</v>
@@ -2553,19 +2553,19 @@
         <v>9828</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6201</v>
+        <v>6061</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>13234</v>
+        <v>13001</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.5365057502044299</v>
+        <v>0.5365057502044298</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3385191053711766</v>
+        <v>0.3308850301960853</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7224028733117348</v>
+        <v>0.7096897937621779</v>
       </c>
     </row>
     <row r="31">
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5759</v>
+        <v>5300</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1151070046909464</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3979472999475383</v>
+        <v>0.3662375255313278</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1967</v>
+        <v>2010</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1591901061291648</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5110923944753316</v>
+        <v>0.5222428280679834</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3</v>
@@ -2624,19 +2624,19 @@
         <v>2278</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6008</v>
+        <v>6045</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1243657606843139</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0335208828153824</v>
+        <v>0.03241458690304608</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3279838980352192</v>
+        <v>0.329968589918036</v>
       </c>
     </row>
     <row r="32">
@@ -2653,19 +2653,19 @@
         <v>10707</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>7680</v>
+        <v>7232</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>13116</v>
+        <v>13114</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.739927161397741</v>
+        <v>0.7399271613977407</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5306939995630504</v>
+        <v>0.4997631612229215</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.906391474456903</v>
+        <v>0.9062264829045904</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -2674,19 +2674,19 @@
         <v>2115</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>594</v>
+        <v>636</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3402</v>
+        <v>3407</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5495960542495247</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1543073785723539</v>
+        <v>0.1653685493508303</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8841663858026535</v>
+        <v>0.8852695456932278</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>19</v>
@@ -2695,19 +2695,19 @@
         <v>12822</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>9104</v>
+        <v>8970</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>15809</v>
+        <v>15479</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.6999519958231828</v>
+        <v>0.6999519958231826</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4969943719673331</v>
+        <v>0.4896808062735149</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8629870766535005</v>
+        <v>0.8449567091377677</v>
       </c>
     </row>
     <row r="33">
@@ -2727,16 +2727,16 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>6215</v>
+        <v>4632</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.07296322691372881</v>
+        <v>0.07296322691372878</v>
       </c>
       <c r="H33" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4295105741614609</v>
+        <v>0.3200811032411777</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>4569</v>
+        <v>5238</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.05763878982915367</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2494336088582079</v>
+        <v>0.2859202443152744</v>
       </c>
     </row>
     <row r="34">
@@ -2838,19 +2838,19 @@
         <v>2632</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5233</v>
+        <v>5010</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4284847173635424</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1148386207682343</v>
+        <v>0.1119401945640726</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.8518815519165689</v>
+        <v>0.8155737045116815</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -2872,19 +2872,19 @@
         <v>2632</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>5679</v>
+        <v>5858</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3092722337093379</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06827245956673189</v>
+        <v>0.06710755927348855</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.6673514157480148</v>
+        <v>0.6883809541928809</v>
       </c>
     </row>
     <row r="36">
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3584</v>
+        <v>2741</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.07170354378881078</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4211545785287124</v>
+        <v>0.3220463108544143</v>
       </c>
     </row>
     <row r="37">
@@ -2964,16 +2964,16 @@
         <v>4163</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1452</v>
+        <v>1232</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>6143</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.6777406736747864</v>
+        <v>0.6777406736747865</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2364355857386854</v>
+        <v>0.2004969183253801</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1</v>
@@ -3006,19 +3006,19 @@
         <v>5920</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2722</v>
+        <v>2429</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>7928</v>
+        <v>7929</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6956957177309299</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3198636812143416</v>
+        <v>0.2854383780217239</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9315846684555299</v>
+        <v>0.9316805921714241</v>
       </c>
     </row>
     <row r="38">
@@ -3086,19 +3086,19 @@
         <v>38147</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>25446</v>
+        <v>26703</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>53904</v>
+        <v>54641</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2362308275447026</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1575765604777465</v>
+        <v>0.1653606973644928</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3338082151575512</v>
+        <v>0.3383738396584019</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>13</v>
@@ -3107,19 +3107,19 @@
         <v>14782</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>8600</v>
+        <v>8256</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>23478</v>
+        <v>23814</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2302954889663085</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1339826548733907</v>
+        <v>0.12863137435468</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.3657872226734415</v>
+        <v>0.3710113888716917</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>41</v>
@@ -3128,19 +3128,19 @@
         <v>52929</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>38324</v>
+        <v>38992</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>70043</v>
+        <v>69823</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.2345426558365788</v>
+        <v>0.2345426558365789</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1698232694609911</v>
+        <v>0.1727863487355024</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.3103814188188403</v>
+        <v>0.3094078430650751</v>
       </c>
     </row>
     <row r="40">
@@ -3157,19 +3157,19 @@
         <v>106085</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>91857</v>
+        <v>91185</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>119574</v>
+        <v>118008</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.6569461383875637</v>
+        <v>0.6569461383875638</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5688369954773019</v>
+        <v>0.5646761471249696</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.7404801971267296</v>
+        <v>0.7307816365087456</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>47</v>
@@ -3178,19 +3178,19 @@
         <v>46314</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>38025</v>
+        <v>37641</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>52649</v>
+        <v>52170</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.7215597749616647</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5924122426344444</v>
+        <v>0.5864346551589851</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.8202489970531842</v>
+        <v>0.8127950327162022</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>138</v>
@@ -3199,19 +3199,19 @@
         <v>152399</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>136811</v>
+        <v>134958</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>168046</v>
+        <v>166921</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.6753240138503815</v>
+        <v>0.6753240138503817</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.6062485960240516</v>
+        <v>0.5980394547020849</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.7446589097773142</v>
+        <v>0.7396745653167198</v>
       </c>
     </row>
     <row r="41">
@@ -3228,19 +3228,19 @@
         <v>28174</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>18794</v>
+        <v>18038</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>41748</v>
+        <v>40854</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1744712219838913</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.116383155171635</v>
+        <v>0.1117042471662311</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2585276312996014</v>
+        <v>0.2529928141080319</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>9</v>
@@ -3249,19 +3249,19 @@
         <v>10090</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>4894</v>
+        <v>4761</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>18331</v>
+        <v>17769</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.1571953754919922</v>
+        <v>0.1571953754919921</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.07625386904821474</v>
+        <v>0.07416928853873299</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2855919027166107</v>
+        <v>0.2768327104271247</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>31</v>
@@ -3270,19 +3270,19 @@
         <v>38264</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>25894</v>
+        <v>25768</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>52445</v>
+        <v>52784</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1695575014106997</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1147421635213157</v>
+        <v>0.1141848791583843</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2323980087816395</v>
+        <v>0.2338994735943356</v>
       </c>
     </row>
     <row r="42">
@@ -3299,19 +3299,19 @@
         <v>87085</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>72184</v>
+        <v>73116</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>101146</v>
+        <v>101364</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.539288938615168</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4470075032857427</v>
+        <v>0.4527812067133346</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6263623911309903</v>
+        <v>0.6277109865245951</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>27</v>
@@ -3320,19 +3320,19 @@
         <v>22705</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>15665</v>
+        <v>15489</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>31064</v>
+        <v>30695</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3537340527537338</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2440492390393927</v>
+        <v>0.2413209555629142</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4839652534311091</v>
+        <v>0.4782211875867206</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>111</v>
@@ -3341,19 +3341,19 @@
         <v>109790</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>91922</v>
+        <v>92849</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>125832</v>
+        <v>126297</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4865120827579986</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4073340262968337</v>
+        <v>0.4114413595449786</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5575964036351473</v>
+        <v>0.5596571358005443</v>
       </c>
     </row>
     <row r="43">
@@ -3370,19 +3370,19 @@
         <v>3093</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>7866</v>
+        <v>8772</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01915236672268698</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.005588732106044193</v>
+        <v>0.005553815850899205</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04871288218933682</v>
+        <v>0.05432113028528174</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>4</v>
@@ -3391,19 +3391,19 @@
         <v>5064</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1696</v>
+        <v>1511</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>11706</v>
+        <v>12090</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.07889410418588261</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.02642293420346502</v>
+        <v>0.02354418414981079</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1823764713317461</v>
+        <v>0.1883524253602137</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>7</v>
@@ -3412,19 +3412,19 @@
         <v>8157</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>3333</v>
+        <v>3566</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>17106</v>
+        <v>16816</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03614454158304858</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01477083633735992</v>
+        <v>0.01580313598720652</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.07580308796015882</v>
+        <v>0.0745186549424373</v>
       </c>
     </row>
     <row r="44">
